--- a/公式/3MW双馈功率计算_V1.3.xlsx
+++ b/公式/3MW双馈功率计算_V1.3.xlsx
@@ -887,9 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL2" sqref="AL2:AL9"/>
+      <selection pane="bottomLeft" activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1178,7 @@
         <v>-61.51046405823476</v>
       </c>
       <c r="AJ2" s="9">
-        <f>$C$2/R2*9.55*-1</f>
+        <f>C2/R2*9.55*-1</f>
         <v>-61.483809523809533</v>
       </c>
       <c r="AK2" s="9">
@@ -1264,9 +1264,9 @@
         <f t="shared" si="7"/>
         <v>-2980.0545950864434</v>
       </c>
-      <c r="AJ3" s="6">
-        <f t="shared" ref="AJ3:AJ9" si="14">$C$2/R3*9.55*-1</f>
-        <v>-61.483809523809533</v>
+      <c r="AJ3" s="9">
+        <f t="shared" ref="AJ3:AJ9" si="14">C3/R3*9.55*-1</f>
+        <v>-2978.7632380952382</v>
       </c>
       <c r="AL3" s="9">
         <f t="shared" ref="AL3:AL9" si="15">($AK$2^2-U3^2)^0.5</f>
@@ -1364,9 +1364,9 @@
         <f t="shared" si="7"/>
         <v>-3794.6129763575514</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="9">
         <f t="shared" si="14"/>
-        <v>-57.589652096342554</v>
+        <v>-3792.968644067797</v>
       </c>
       <c r="AL4" s="9">
         <f t="shared" si="15"/>
@@ -1464,9 +1464,9 @@
         <f t="shared" si="7"/>
         <v>-5998.4687973355649</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="9">
         <f t="shared" si="14"/>
-        <v>-47.679468242245207</v>
+        <v>-5995.8694608567212</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" si="15"/>
@@ -1548,9 +1548,9 @@
         <f t="shared" si="7"/>
         <v>-7467.7691658353151</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="9">
         <f t="shared" si="14"/>
-        <v>-43.21151271753682</v>
+        <v>-7464.5331325301204</v>
       </c>
       <c r="AL6" s="9">
         <f t="shared" si="15"/>
@@ -1638,9 +1638,9 @@
         <f t="shared" si="7"/>
         <v>-8492.4686645876736</v>
       </c>
-      <c r="AJ7" s="18">
+      <c r="AJ7" s="9">
         <f t="shared" si="14"/>
-        <v>-40.679269061121616</v>
+        <v>-8488.7885948330186</v>
       </c>
       <c r="AL7" s="9">
         <f t="shared" si="15"/>
@@ -1730,9 +1730,9 @@
         <f t="shared" si="7"/>
         <v>-10145.333702575463</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="9">
         <f t="shared" si="14"/>
-        <v>-37.424927536231891</v>
+        <v>-10140.937391304347</v>
       </c>
       <c r="AL8" s="9">
         <f t="shared" si="15"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AJ9" s="9">
         <f t="shared" si="14"/>
-        <v>-37.424927536231891</v>
+        <v>-16608.695652173916</v>
       </c>
       <c r="AL9" s="9">
         <f t="shared" si="15"/>
